--- a/データベース定義書.xlsx
+++ b/データベース定義書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H16304010\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\卒業制作Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>列名</t>
     <rPh sb="0" eb="1">
@@ -496,6 +496,10 @@
   </si>
   <si>
     <t>VARCHAR２(500)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SYSDATE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1026,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" activeCellId="1" sqref="H8 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1231,7 +1235,9 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="L7" s="17"/>
     </row>

--- a/データベース定義書.xlsx
+++ b/データベース定義書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\卒業制作Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H16304010\Documents\GitHub\Kwitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>列名</t>
     <rPh sb="0" eb="1">
@@ -500,6 +500,10 @@
   </si>
   <si>
     <t>SYSDATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1030,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" activeCellId="1" sqref="H8 E9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1344,10 +1348,10 @@
       <c r="O12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="P12" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
@@ -1378,10 +1382,10 @@
       <c r="O13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="P13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -1476,7 +1480,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:17" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="15" t="s">
         <v>79</v>
@@ -1494,6 +1498,14 @@
         <v>78</v>
       </c>
       <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:17" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
@@ -1513,43 +1525,47 @@
         <v>78</v>
       </c>
       <c r="I20" s="5"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="3"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B21" s="17"/>
-      <c r="K21" s="4"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
-      <c r="Q21" s="6"/>
+      <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" s="17"/>
-      <c r="K22" s="4"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
-      <c r="Q22" s="6"/>
+      <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="1:17" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="17"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="9"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -1563,6 +1579,14 @@
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
       <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
@@ -1588,6 +1612,14 @@
         <v>75</v>
       </c>
       <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>

--- a/データベース定義書.xlsx
+++ b/データベース定義書.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
   <si>
     <t>列名</t>
     <rPh sb="0" eb="1">
@@ -52,10 +52,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VARCHAR２</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DATE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -207,10 +203,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CHECK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UNIQUE NOT NULL</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -504,6 +496,10 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(10)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1034,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1053,7 +1049,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -1064,7 +1060,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1076,7 +1072,7 @@
       <c r="I2" s="5"/>
       <c r="K2" s="4"/>
       <c r="L2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>1</v>
@@ -1085,13 +1081,13 @@
         <v>2</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="R2" s="13"/>
     </row>
@@ -1107,100 +1103,100 @@
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="H3" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I3" s="5"/>
       <c r="K3" s="4"/>
       <c r="L3" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
       <c r="I4" s="5"/>
       <c r="K4" s="4"/>
       <c r="L4" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="5"/>
       <c r="K5" s="10"/>
       <c r="L5" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="9"/>
@@ -1208,16 +1204,16 @@
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1228,19 +1224,19 @@
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I7" s="5"/>
       <c r="L7" s="17"/>
@@ -1248,16 +1244,14 @@
     <row r="8" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1272,7 +1266,7 @@
     <row r="10" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="17"/>
       <c r="K10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L10" s="18"/>
       <c r="M10" s="2"/>
@@ -1283,7 +1277,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="2"/>
@@ -1295,7 +1289,7 @@
       <c r="I11" s="5"/>
       <c r="K11" s="4"/>
       <c r="L11" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>1</v>
@@ -1304,13 +1298,13 @@
         <v>2</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1325,81 +1319,81 @@
         <v>2</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="H12" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I12" s="5"/>
       <c r="K12" s="4"/>
       <c r="L12" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
       <c r="K13" s="10"/>
       <c r="L13" s="26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -1409,16 +1403,16 @@
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="E15" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>68</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -1428,16 +1422,16 @@
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -1447,33 +1441,33 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:17" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -1483,19 +1477,19 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -1510,19 +1504,19 @@
     <row r="20" spans="1:17" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -1569,7 +1563,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="2"/>
@@ -1591,7 +1585,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>1</v>
@@ -1600,16 +1594,16 @@
         <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="H25" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -1624,17 +1618,17 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="6"/>
@@ -1643,18 +1637,18 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="5"/>
@@ -1662,18 +1656,18 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="5"/>
@@ -1681,18 +1675,18 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="5"/>
@@ -1700,35 +1694,35 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:17" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>

--- a/データベース定義書.xlsx
+++ b/データベース定義書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H16304010\Documents\GitHub\Kwitter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\卒業制作Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -377,19 +377,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>uIntroduction</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>uRegistrationDate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>uPassword</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAAR2(30)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -444,10 +432,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>uIconPath</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>uHeaderImagePath</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -500,6 +484,22 @@
   </si>
   <si>
     <t>NUMBER(10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uPassword</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uIntroduction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uIconPath</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1031,7 +1031,7 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1112,12 +1112,12 @@
         <v>14</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I3" s="5"/>
       <c r="K3" s="4"/>
       <c r="L3" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>43</v>
@@ -1151,7 +1151,7 @@
       <c r="I4" s="5"/>
       <c r="K4" s="4"/>
       <c r="L4" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>42</v>
@@ -1168,10 +1168,10 @@
     <row r="5" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>24</v>
@@ -1187,10 +1187,10 @@
       <c r="I5" s="5"/>
       <c r="K5" s="10"/>
       <c r="L5" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>31</v>
@@ -1207,7 +1207,7 @@
         <v>57</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>24</v>
@@ -1236,7 +1236,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I7" s="5"/>
       <c r="L7" s="17"/>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1328,12 +1328,12 @@
         <v>14</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I12" s="5"/>
       <c r="K12" s="4"/>
       <c r="L12" s="16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>42</v>
@@ -1343,7 +1343,7 @@
         <v>44</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="6"/>
     </row>
@@ -1367,7 +1367,7 @@
       <c r="I13" s="5"/>
       <c r="K13" s="10"/>
       <c r="L13" s="26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>42</v>
@@ -1377,7 +1377,7 @@
         <v>45</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="9"/>
     </row>
@@ -1403,16 +1403,16 @@
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>66</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -1441,7 +1441,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>15</v>
@@ -1453,14 +1453,14 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:17" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="25" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>34</v>
@@ -1477,7 +1477,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="15" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>35</v>
@@ -1489,7 +1489,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -1504,19 +1504,19 @@
     <row r="20" spans="1:17" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -1603,7 +1603,7 @@
         <v>14</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -1637,7 +1637,7 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>42</v>
@@ -1656,7 +1656,7 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>42</v>
@@ -1675,7 +1675,7 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>42</v>
@@ -1706,7 +1706,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I30" s="5"/>
     </row>
@@ -1732,7 +1732,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/データベース定義書.xlsx
+++ b/データベース定義書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\卒業制作Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H16304010\Documents\GitHub\Kwitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="104">
   <si>
     <t>列名</t>
     <rPh sb="0" eb="1">
@@ -501,6 +501,45 @@
   <si>
     <t>uIconPath</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Iine</t>
+  </si>
+  <si>
+    <t>列名</t>
+  </si>
+  <si>
+    <t>データ型</t>
+  </si>
+  <si>
+    <t>制約</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>主キー</t>
+  </si>
+  <si>
+    <t>外部キー</t>
+  </si>
+  <si>
+    <t>pTargetPostIdD</t>
+  </si>
+  <si>
+    <t>NUMBER(10)</t>
+  </si>
+  <si>
+    <t>いいね！された列のID</t>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>uUserID</t>
+  </si>
+  <si>
+    <t>いいね！した人のID</t>
   </si>
 </sst>
 </file>
@@ -1030,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17:Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1456,6 +1495,9 @@
         <v>71</v>
       </c>
       <c r="I17" s="5"/>
+      <c r="K17" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="18" spans="1:17" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
@@ -1473,6 +1515,24 @@
       <c r="G18" s="5"/>
       <c r="H18" s="6"/>
       <c r="I18" s="5"/>
+      <c r="L18" t="s">
+        <v>92</v>
+      </c>
+      <c r="M18" t="s">
+        <v>93</v>
+      </c>
+      <c r="N18" t="s">
+        <v>94</v>
+      </c>
+      <c r="O18" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -1494,11 +1554,19 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="L19" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
+      <c r="O19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:17" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1521,11 +1589,19 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="L20" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
+      <c r="O20" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
